--- a/APF/RA006/Method/APF_BIZ_Method一覽表.xlsx
+++ b/APF/RA006/Method/APF_BIZ_Method一覽表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" firstSheet="30" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200" firstSheet="32" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Method_List" sheetId="4" r:id="rId1"/>
@@ -4956,10 +4956,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;org_id&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>輸入</t>
     </r>
@@ -8915,6 +8911,10 @@
             }
 2.呼叫CMDEmpRepository.GetByEntitySQL，傳入查詢字串及參數，取得查詢結果。
 3.回傳查詢結果。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -29514,7 +29514,7 @@
         <v>304</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>305</v>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="B5" s="89"/>
       <c r="C5" s="79" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D5" s="70" t="s">
         <v>307</v>
@@ -29542,13 +29542,13 @@
         <v>220</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D6" s="71" t="s">
         <v>221</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -29557,10 +29557,10 @@
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="83" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E7" s="80"/>
     </row>
@@ -29570,10 +29570,10 @@
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="83" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E8" s="80"/>
     </row>
@@ -29583,10 +29583,10 @@
       </c>
       <c r="B9" s="91"/>
       <c r="C9" s="83" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E9" s="80"/>
     </row>
@@ -29596,10 +29596,10 @@
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="83" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E10" s="80"/>
     </row>
@@ -29609,10 +29609,10 @@
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="83" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E11" s="80"/>
     </row>
@@ -29621,13 +29621,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E12" s="72"/>
     </row>
@@ -29743,10 +29743,10 @@
       </c>
       <c r="B21" s="89"/>
       <c r="C21" s="79" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E21" s="80"/>
     </row>
@@ -29755,13 +29755,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E22" s="72"/>
     </row>
@@ -29771,10 +29771,10 @@
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="79" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E23" s="72"/>
     </row>
@@ -29784,10 +29784,10 @@
       </c>
       <c r="B24" s="89"/>
       <c r="C24" s="79" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E24" s="72"/>
     </row>
@@ -29815,7 +29815,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E26" s="80"/>
     </row>
@@ -29828,7 +29828,7 @@
         <v>79</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E27" s="80"/>
     </row>
@@ -29841,7 +29841,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E28" s="80"/>
     </row>
@@ -29866,7 +29866,7 @@
         <v>344</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D30" s="70" t="s">
         <v>342</v>
@@ -29879,10 +29879,10 @@
       </c>
       <c r="B31" s="88"/>
       <c r="C31" s="79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E31" s="80"/>
     </row>
@@ -29892,10 +29892,10 @@
       </c>
       <c r="B32" s="89"/>
       <c r="C32" s="79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E32" s="80"/>
     </row>
@@ -29936,7 +29936,7 @@
         <v>175</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E35" s="72"/>
     </row>
@@ -29949,7 +29949,7 @@
         <v>175</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E36" s="72"/>
     </row>
@@ -29972,7 +29972,7 @@
       </c>
       <c r="B38" s="89"/>
       <c r="C38" s="79" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D38" s="70" t="s">
         <v>744</v>
@@ -29984,13 +29984,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E39" s="80"/>
     </row>
@@ -36262,7 +36262,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
@@ -39068,7 +39068,7 @@
         <v>312</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
@@ -39581,7 +39581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
@@ -39665,7 +39665,7 @@
         <v>795</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
@@ -39697,7 +39697,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>801</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -39724,7 +39724,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -39733,20 +39733,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>804</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>805</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -39755,20 +39755,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
       <c r="I10" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -39777,20 +39777,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C11" s="102"/>
       <c r="D11" s="102"/>
       <c r="E11" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -39808,7 +39808,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="94" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
@@ -39822,23 +39822,23 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="B14" s="104" t="s">
         <v>812</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>813</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
       <c r="E14" s="104" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F14" s="106"/>
       <c r="G14" s="104" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H14" s="106"/>
       <c r="I14" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -39847,18 +39847,18 @@
         <v>1</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F15" s="109"/>
       <c r="G15" s="148"/>
       <c r="H15" s="109"/>
       <c r="I15" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -39867,18 +39867,18 @@
         <v>2</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="107" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F16" s="109"/>
       <c r="G16" s="148"/>
       <c r="H16" s="109"/>
       <c r="I16" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -39887,18 +39887,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F17" s="109"/>
       <c r="G17" s="148"/>
       <c r="H17" s="109"/>
       <c r="I17" s="24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -39907,18 +39907,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
       <c r="E18" s="107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F18" s="109"/>
       <c r="G18" s="107"/>
       <c r="H18" s="109"/>
       <c r="I18" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J18" s="6"/>
     </row>
@@ -39927,18 +39927,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
       <c r="E19" s="107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F19" s="109"/>
       <c r="G19" s="107"/>
       <c r="H19" s="109"/>
       <c r="I19" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -39947,18 +39947,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
       <c r="E20" s="107" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F20" s="109"/>
       <c r="G20" s="107"/>
       <c r="H20" s="109"/>
       <c r="I20" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J20" s="6"/>
     </row>
@@ -39978,7 +39978,7 @@
       <c r="G21" s="107"/>
       <c r="H21" s="109"/>
       <c r="I21" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J21" s="6"/>
     </row>
@@ -39987,18 +39987,18 @@
         <v>8</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C22" s="108"/>
       <c r="D22" s="108"/>
       <c r="E22" s="107" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F22" s="109"/>
       <c r="G22" s="107"/>
       <c r="H22" s="109"/>
       <c r="I22" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J22" s="6"/>
     </row>
@@ -40016,7 +40016,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="94" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B24" s="95"/>
       <c r="C24" s="95"/>
@@ -40030,22 +40030,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C25" s="105"/>
       <c r="D25" s="98" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E25" s="119"/>
       <c r="F25" s="120" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G25" s="121"/>
       <c r="H25" s="122" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I25" s="123"/>
     </row>
@@ -40073,7 +40073,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
       <c r="A28" s="94" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B28" s="95"/>
       <c r="C28" s="95"/>
@@ -40089,12 +40089,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="139" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C29" s="214"/>
       <c r="D29" s="145"/>
       <c r="E29" s="107" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
@@ -40107,7 +40107,7 @@
       <c r="C30" s="215"/>
       <c r="D30" s="147"/>
       <c r="E30" s="107" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
@@ -40120,7 +40120,7 @@
       <c r="C31" s="215"/>
       <c r="D31" s="147"/>
       <c r="E31" s="107" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="107"/>
@@ -40133,7 +40133,7 @@
       <c r="C32" s="215"/>
       <c r="D32" s="147"/>
       <c r="E32" s="107" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F32" s="107"/>
       <c r="G32" s="107"/>
@@ -40146,7 +40146,7 @@
       <c r="C33" s="215"/>
       <c r="D33" s="147"/>
       <c r="E33" s="107" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F33" s="107"/>
       <c r="G33" s="107"/>
@@ -40159,7 +40159,7 @@
       <c r="C34" s="215"/>
       <c r="D34" s="147"/>
       <c r="E34" s="107" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -40172,7 +40172,7 @@
       <c r="C35" s="215"/>
       <c r="D35" s="147"/>
       <c r="E35" s="107" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
@@ -40185,7 +40185,7 @@
       <c r="C36" s="215"/>
       <c r="D36" s="147"/>
       <c r="E36" s="107" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F36" s="107"/>
       <c r="G36" s="107"/>
@@ -40198,7 +40198,7 @@
       <c r="C37" s="215"/>
       <c r="D37" s="147"/>
       <c r="E37" s="107" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F37" s="107"/>
       <c r="G37" s="107"/>
@@ -40211,7 +40211,7 @@
       <c r="C38" s="215"/>
       <c r="D38" s="147"/>
       <c r="E38" s="107" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F38" s="107"/>
       <c r="G38" s="107"/>
@@ -40247,18 +40247,18 @@
     <row r="41" spans="1:9">
       <c r="A41" s="132"/>
       <c r="B41" s="94" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C41" s="95"/>
       <c r="D41" s="95"/>
       <c r="E41" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="120" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H41" s="135"/>
       <c r="I41" s="136"/>
@@ -40476,7 +40476,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -40517,12 +40517,12 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
@@ -40530,7 +40530,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
@@ -40542,7 +40542,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -40550,7 +40550,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -40562,7 +40562,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -40598,7 +40598,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
@@ -40606,12 +40606,12 @@
         <v>31</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -40641,7 +40641,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -40655,23 +40655,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>870</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>871</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -40680,18 +40680,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -40725,7 +40725,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -40739,22 +40739,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>879</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>880</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -40763,19 +40763,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="107" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I19" s="107"/>
     </row>
@@ -40784,11 +40784,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="107"/>
@@ -40799,11 +40799,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="107"/>
@@ -40814,11 +40814,11 @@
       <c r="B22" s="131"/>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="107"/>
@@ -40829,11 +40829,11 @@
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
       <c r="D23" s="217" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="107"/>
@@ -40844,11 +40844,11 @@
       <c r="B24" s="131"/>
       <c r="C24" s="131"/>
       <c r="D24" s="217" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="107"/>
@@ -40859,11 +40859,11 @@
       <c r="B25" s="131"/>
       <c r="C25" s="131"/>
       <c r="D25" s="217" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E25" s="217"/>
       <c r="F25" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="107"/>
@@ -40874,11 +40874,11 @@
       <c r="B26" s="131"/>
       <c r="C26" s="131"/>
       <c r="D26" s="217" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="107"/>
@@ -40889,11 +40889,11 @@
       <c r="B27" s="131"/>
       <c r="C27" s="131"/>
       <c r="D27" s="217" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E27" s="217"/>
       <c r="F27" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G27" s="218"/>
       <c r="H27" s="107"/>
@@ -40904,7 +40904,7 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="217" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E28" s="217"/>
       <c r="F28" s="218" t="s">
@@ -40919,11 +40919,11 @@
       <c r="B29" s="131"/>
       <c r="C29" s="131"/>
       <c r="D29" s="217" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E29" s="217"/>
       <c r="F29" s="218" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="107"/>
@@ -40934,11 +40934,11 @@
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
       <c r="D30" s="217" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E30" s="217"/>
       <c r="F30" s="218" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G30" s="218"/>
       <c r="H30" s="107"/>
@@ -40968,7 +40968,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="94" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -40984,12 +40984,12 @@
         <v>1</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="E34" s="107" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -41014,18 +41014,18 @@
     <row r="36" spans="1:9">
       <c r="A36" s="132"/>
       <c r="B36" s="94" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="95"/>
       <c r="E36" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="136"/>
@@ -41223,7 +41223,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -41264,40 +41264,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>912</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>913</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="29" t="s">
+        <v>915</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>916</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>917</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -41309,7 +41309,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -41336,7 +41336,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -41345,20 +41345,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>921</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>922</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -41388,7 +41388,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -41402,23 +41402,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>925</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>926</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -41427,18 +41427,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="32" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -41472,7 +41472,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -41486,22 +41486,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>934</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>935</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -41510,19 +41510,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -41531,11 +41531,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -41546,11 +41546,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -41561,11 +41561,11 @@
       <c r="B22" s="131"/>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="150"/>
@@ -41595,7 +41595,7 @@
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A25" s="94" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B25" s="95"/>
       <c r="C25" s="95"/>
@@ -41611,12 +41611,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C26" s="132"/>
       <c r="D26" s="132"/>
       <c r="E26" s="107" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="107"/>
@@ -41641,18 +41641,18 @@
     <row r="28" spans="1:10" s="7" customFormat="1">
       <c r="A28" s="132"/>
       <c r="B28" s="94" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
       <c r="E28" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H28" s="135"/>
       <c r="I28" s="136"/>
@@ -41834,7 +41834,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -41875,17 +41875,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H5" s="97" t="s">
         <v>78</v>
@@ -41900,7 +41900,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -41908,7 +41908,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -41920,7 +41920,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -41956,7 +41956,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
@@ -41964,7 +41964,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
@@ -42009,7 +42009,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -42023,23 +42023,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>975</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>976</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -42048,18 +42048,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -42093,7 +42093,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -42107,22 +42107,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -42131,19 +42131,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -42152,11 +42152,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -42167,11 +42167,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="150"/>
@@ -42201,7 +42201,7 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="122" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -42217,12 +42217,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
       <c r="E25" s="117" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F25" s="127"/>
       <c r="G25" s="127"/>
@@ -42247,18 +42247,18 @@
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="132"/>
       <c r="B27" s="94" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="136"/>
@@ -42438,7 +42438,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -42479,40 +42479,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>1000</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>1001</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>1004</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>1005</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -42524,7 +42524,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -42551,7 +42551,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -42560,20 +42560,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="31" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -42582,20 +42582,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
       <c r="I10" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -42613,7 +42613,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -42627,23 +42627,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>958</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>959</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="29" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -42652,18 +42652,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="32" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -42697,7 +42697,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -42711,22 +42711,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -42735,19 +42735,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -42756,11 +42756,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -42771,11 +42771,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="150"/>
@@ -42805,7 +42805,7 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="122" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B24" s="133"/>
       <c r="C24" s="133"/>
@@ -42821,12 +42821,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
       <c r="E25" s="117" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F25" s="127"/>
       <c r="G25" s="127"/>
@@ -42851,18 +42851,18 @@
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="132"/>
       <c r="B27" s="94" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="136"/>
@@ -43088,7 +43088,7 @@
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
@@ -43096,7 +43096,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
@@ -43108,7 +43108,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -43116,7 +43116,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -43128,7 +43128,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -43164,12 +43164,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="31" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F9" s="100" t="s">
         <v>208</v>
@@ -43186,20 +43186,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>1037</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>1038</v>
       </c>
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
       <c r="I10" s="30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -43256,18 +43256,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="32" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -43371,11 +43371,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="131" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
@@ -43383,7 +43383,7 @@
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="107" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I22" s="107"/>
     </row>
@@ -43392,7 +43392,7 @@
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
       <c r="D23" s="217" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
@@ -43411,7 +43411,7 @@
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="107"/>
@@ -43426,7 +43426,7 @@
       </c>
       <c r="E25" s="217"/>
       <c r="F25" s="218" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="107"/>
@@ -43437,7 +43437,7 @@
       <c r="B26" s="131"/>
       <c r="C26" s="131"/>
       <c r="D26" s="217" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218" t="s">
@@ -43452,7 +43452,7 @@
       <c r="B27" s="131"/>
       <c r="C27" s="131"/>
       <c r="D27" s="217" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E27" s="217"/>
       <c r="F27" s="218" t="s">
@@ -43467,7 +43467,7 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="217" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E28" s="217"/>
       <c r="F28" s="218" t="s">
@@ -43482,7 +43482,7 @@
       <c r="B29" s="131"/>
       <c r="C29" s="131"/>
       <c r="D29" s="217" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E29" s="217"/>
       <c r="F29" s="218" t="s">
@@ -43497,7 +43497,7 @@
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
       <c r="D30" s="217" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E30" s="217"/>
       <c r="F30" s="219"/>
@@ -43510,7 +43510,7 @@
       <c r="B31" s="131"/>
       <c r="C31" s="131"/>
       <c r="D31" s="217" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E31" s="217"/>
       <c r="F31" s="218" t="s">
@@ -43525,7 +43525,7 @@
       <c r="B32" s="131"/>
       <c r="C32" s="131"/>
       <c r="D32" s="217" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E32" s="217"/>
       <c r="F32" s="218" t="s">
@@ -43540,7 +43540,7 @@
       <c r="B33" s="131"/>
       <c r="C33" s="131"/>
       <c r="D33" s="217" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E33" s="217"/>
       <c r="F33" s="218" t="s">
@@ -43584,7 +43584,7 @@
       <c r="C36" s="153"/>
       <c r="D36" s="154"/>
       <c r="E36" s="117" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F36" s="127"/>
       <c r="G36" s="127"/>
@@ -43749,25 +43749,12 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:I36"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="B42:D42"/>
@@ -43776,7 +43763,20 @@
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="G41:I41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:I35"/>
     <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -43889,7 +43889,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -43897,7 +43897,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -43909,7 +43909,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -43945,7 +43945,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
@@ -43953,7 +43953,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
@@ -43967,20 +43967,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>1067</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>1068</v>
       </c>
       <c r="G10" s="103"/>
       <c r="H10" s="103"/>
       <c r="I10" s="52" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -43989,20 +43989,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C11" s="102"/>
       <c r="D11" s="102"/>
       <c r="E11" s="53" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="52" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J11" s="6"/>
     </row>
@@ -44020,7 +44020,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="94" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
@@ -44034,23 +44034,23 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B14" s="104" t="s">
         <v>1073</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>1074</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
       <c r="E14" s="104" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F14" s="106"/>
       <c r="G14" s="104" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H14" s="106"/>
       <c r="I14" s="47" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -44059,18 +44059,18 @@
         <v>1</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="107" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F15" s="109"/>
       <c r="G15" s="148"/>
       <c r="H15" s="109"/>
       <c r="I15" s="48" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -44079,18 +44079,18 @@
         <v>2</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="107" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F16" s="109"/>
       <c r="G16" s="107"/>
       <c r="H16" s="109"/>
       <c r="I16" s="51" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -44099,18 +44099,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="107" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F17" s="109"/>
       <c r="G17" s="107"/>
       <c r="H17" s="109"/>
       <c r="I17" s="51" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -44140,7 +44140,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="94" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B20" s="95"/>
       <c r="C20" s="95"/>
@@ -44154,22 +44154,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="47" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C21" s="105"/>
       <c r="D21" s="98" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E21" s="119"/>
       <c r="F21" s="120" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G21" s="121"/>
       <c r="H21" s="122" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I21" s="123"/>
     </row>
@@ -44178,19 +44178,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="131" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="139" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I22" s="145"/>
     </row>
@@ -44199,11 +44199,11 @@
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
       <c r="D23" s="217" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -44214,11 +44214,11 @@
       <c r="B24" s="131"/>
       <c r="C24" s="131"/>
       <c r="D24" s="217" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="150"/>
@@ -44248,7 +44248,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="94" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
@@ -44264,12 +44264,12 @@
         <v>1</v>
       </c>
       <c r="B28" s="220" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C28" s="221"/>
       <c r="D28" s="222"/>
       <c r="E28" s="107" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
@@ -44282,7 +44282,7 @@
       <c r="C29" s="224"/>
       <c r="D29" s="225"/>
       <c r="E29" s="107" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
@@ -44295,7 +44295,7 @@
       <c r="C30" s="224"/>
       <c r="D30" s="225"/>
       <c r="E30" s="107" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
@@ -44308,7 +44308,7 @@
       <c r="C31" s="224"/>
       <c r="D31" s="225"/>
       <c r="E31" s="107" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="107"/>
@@ -44321,7 +44321,7 @@
       <c r="C32" s="224"/>
       <c r="D32" s="225"/>
       <c r="E32" s="107" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F32" s="107"/>
       <c r="G32" s="107"/>
@@ -44368,18 +44368,18 @@
     <row r="36" spans="1:9">
       <c r="A36" s="132"/>
       <c r="B36" s="94" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="95"/>
       <c r="E36" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="136"/>
@@ -44493,14 +44493,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:C24"/>
     <mergeCell ref="D22:E22"/>
@@ -44509,22 +44501,20 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G41:I41"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:D32"/>
@@ -44540,6 +44530,16 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -44586,7 +44586,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -44627,40 +44627,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>1112</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>1113</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>1116</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>1117</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -44672,7 +44672,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -44699,7 +44699,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -44757,23 +44757,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1120</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1121</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -44782,18 +44782,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -44827,7 +44827,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -44841,22 +44841,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -44865,19 +44865,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -44886,11 +44886,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -44901,11 +44901,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -44916,11 +44916,11 @@
       <c r="B22" s="131"/>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="150"/>
@@ -44950,7 +44950,7 @@
     </row>
     <row r="25" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A25" s="94" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B25" s="95"/>
       <c r="C25" s="95"/>
@@ -44966,12 +44966,12 @@
         <v>1</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C26" s="132"/>
       <c r="D26" s="132"/>
       <c r="E26" s="107" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="107"/>
@@ -44996,18 +44996,18 @@
     <row r="28" spans="1:10" s="7" customFormat="1">
       <c r="A28" s="132"/>
       <c r="B28" s="94" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C28" s="95"/>
       <c r="D28" s="95"/>
       <c r="E28" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H28" s="135"/>
       <c r="I28" s="136"/>
@@ -45851,7 +45851,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -45859,7 +45859,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="226" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I6" s="227"/>
       <c r="J6" s="6"/>
@@ -45871,7 +45871,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -45912,15 +45912,15 @@
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>1143</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>1144</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="52" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -45929,20 +45929,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="53" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="52" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -45960,7 +45960,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -45974,23 +45974,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1073</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1074</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -45999,18 +45999,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -46082,7 +46082,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
@@ -46173,7 +46173,7 @@
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
       <c r="E25" s="107" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="107"/>
@@ -46389,7 +46389,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -46430,40 +46430,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>1157</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>1158</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -46475,7 +46475,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -46502,7 +46502,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -46546,7 +46546,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -46560,23 +46560,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1162</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1163</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -46585,18 +46585,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -46630,7 +46630,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -46644,22 +46644,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>1171</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>1172</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -46668,19 +46668,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="217" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -46689,11 +46689,11 @@
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="217" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -46704,11 +46704,11 @@
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="217" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -46719,11 +46719,11 @@
       <c r="B22" s="131"/>
       <c r="C22" s="131"/>
       <c r="D22" s="217" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="146"/>
@@ -46734,11 +46734,11 @@
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
       <c r="D23" s="217" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -46749,11 +46749,11 @@
       <c r="B24" s="131"/>
       <c r="C24" s="131"/>
       <c r="D24" s="217" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="146"/>
@@ -46764,11 +46764,11 @@
       <c r="B25" s="131"/>
       <c r="C25" s="131"/>
       <c r="D25" s="217" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E25" s="217"/>
       <c r="F25" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="146"/>
@@ -46779,11 +46779,11 @@
       <c r="B26" s="131"/>
       <c r="C26" s="131"/>
       <c r="D26" s="217" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="146"/>
@@ -46794,11 +46794,11 @@
       <c r="B27" s="131"/>
       <c r="C27" s="131"/>
       <c r="D27" s="217" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E27" s="217"/>
       <c r="F27" s="218" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G27" s="218"/>
       <c r="H27" s="146"/>
@@ -46809,11 +46809,11 @@
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="217" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E28" s="217"/>
       <c r="F28" s="218" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="146"/>
@@ -46824,11 +46824,11 @@
       <c r="B29" s="131"/>
       <c r="C29" s="131"/>
       <c r="D29" s="217" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E29" s="217"/>
       <c r="F29" s="218" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="146"/>
@@ -46839,11 +46839,11 @@
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
       <c r="D30" s="217" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E30" s="217"/>
       <c r="F30" s="218" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G30" s="218"/>
       <c r="H30" s="150"/>
@@ -46873,7 +46873,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="94" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -46889,12 +46889,12 @@
         <v>1</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="E34" s="107" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -46919,18 +46919,18 @@
     <row r="36" spans="1:9">
       <c r="A36" s="132"/>
       <c r="B36" s="94" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="95"/>
       <c r="E36" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="136"/>
@@ -47128,7 +47128,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="93" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -47169,40 +47169,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="160" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B5" s="161"/>
       <c r="C5" s="161"/>
       <c r="D5" s="162" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="162"/>
       <c r="G5" s="54" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H5" s="163" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I5" s="162"/>
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="160" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="161"/>
       <c r="D6" s="162" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E6" s="162"/>
       <c r="F6" s="162"/>
       <c r="G6" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H6" s="163" t="s">
         <v>1203</v>
-      </c>
-      <c r="H6" s="163" t="s">
-        <v>1204</v>
       </c>
       <c r="I6" s="162"/>
       <c r="J6" s="39"/>
@@ -47214,7 +47214,7 @@
       <c r="B7" s="161"/>
       <c r="C7" s="161"/>
       <c r="D7" s="162" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E7" s="162"/>
       <c r="F7" s="162"/>
@@ -47241,7 +47241,7 @@
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
       <c r="I8" s="54" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -47250,20 +47250,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="209" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C9" s="210"/>
       <c r="D9" s="211"/>
       <c r="E9" s="59" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F9" s="193" t="s">
         <v>1208</v>
-      </c>
-      <c r="F9" s="193" t="s">
-        <v>1209</v>
       </c>
       <c r="G9" s="194"/>
       <c r="H9" s="195"/>
       <c r="I9" s="58" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J9" s="39"/>
     </row>
@@ -47272,15 +47272,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="163" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C10" s="171"/>
       <c r="D10" s="171"/>
       <c r="E10" s="59" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F10" s="169" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G10" s="172"/>
       <c r="H10" s="172"/>
@@ -47292,15 +47292,15 @@
         <v>3</v>
       </c>
       <c r="B11" s="163" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C11" s="171"/>
       <c r="D11" s="171"/>
       <c r="E11" s="59" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F11" s="169" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G11" s="170"/>
       <c r="H11" s="170"/>
@@ -47309,7 +47309,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="160" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B12" s="161"/>
       <c r="C12" s="161"/>
@@ -47323,23 +47323,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="54" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B13" s="164" t="s">
         <v>1216</v>
-      </c>
-      <c r="B13" s="164" t="s">
-        <v>1217</v>
       </c>
       <c r="C13" s="165"/>
       <c r="D13" s="166"/>
       <c r="E13" s="164" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F13" s="166"/>
       <c r="G13" s="164" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H13" s="166"/>
       <c r="I13" s="54" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J13" s="39"/>
     </row>
@@ -47348,18 +47348,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="174"/>
       <c r="E14" s="173" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="175"/>
       <c r="G14" s="176"/>
       <c r="H14" s="175"/>
       <c r="I14" s="55" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J14" s="39"/>
     </row>
@@ -47393,7 +47393,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="160" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B17" s="161"/>
       <c r="C17" s="161"/>
@@ -47407,22 +47407,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="54" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="167" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E18" s="177"/>
       <c r="F18" s="178" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G18" s="179"/>
       <c r="H18" s="180" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I18" s="181"/>
     </row>
@@ -47489,7 +47489,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="160" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B24" s="161"/>
       <c r="C24" s="161"/>
@@ -47505,12 +47505,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="203" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C25" s="204"/>
       <c r="D25" s="204"/>
       <c r="E25" s="173" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
@@ -47535,18 +47535,18 @@
     <row r="27" spans="1:10">
       <c r="A27" s="204"/>
       <c r="B27" s="160" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C27" s="161"/>
       <c r="D27" s="161"/>
       <c r="E27" s="44" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="178" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H27" s="207"/>
       <c r="I27" s="208"/>
@@ -47726,7 +47726,7 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="93" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -47767,40 +47767,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="160" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B5" s="161"/>
       <c r="C5" s="161"/>
       <c r="D5" s="162" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E5" s="162"/>
       <c r="F5" s="162"/>
       <c r="G5" s="54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H5" s="163" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I5" s="162"/>
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="160" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="161"/>
       <c r="D6" s="162" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E6" s="162"/>
       <c r="F6" s="162"/>
       <c r="G6" s="54" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H6" s="163" t="s">
         <v>1245</v>
-      </c>
-      <c r="H6" s="163" t="s">
-        <v>1246</v>
       </c>
       <c r="I6" s="162"/>
       <c r="J6" s="39"/>
@@ -47839,7 +47839,7 @@
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
       <c r="I8" s="54" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J8" s="39"/>
     </row>
@@ -47887,7 +47887,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="160" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B12" s="161"/>
       <c r="C12" s="161"/>
@@ -47901,23 +47901,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="54" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B13" s="164" t="s">
         <v>1249</v>
-      </c>
-      <c r="B13" s="164" t="s">
-        <v>1250</v>
       </c>
       <c r="C13" s="165"/>
       <c r="D13" s="166"/>
       <c r="E13" s="164" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F13" s="166"/>
       <c r="G13" s="164" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H13" s="166"/>
       <c r="I13" s="54" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J13" s="39"/>
     </row>
@@ -47926,18 +47926,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="173" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C14" s="174"/>
       <c r="D14" s="174"/>
       <c r="E14" s="173" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F14" s="175"/>
       <c r="G14" s="176"/>
       <c r="H14" s="175"/>
       <c r="I14" s="55" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J14" s="39"/>
     </row>
@@ -47971,7 +47971,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="160" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B17" s="161"/>
       <c r="C17" s="161"/>
@@ -47985,22 +47985,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="54" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="167" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E18" s="177"/>
       <c r="F18" s="178" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G18" s="179"/>
       <c r="H18" s="180" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I18" s="181"/>
     </row>
@@ -48067,7 +48067,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="160" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B24" s="161"/>
       <c r="C24" s="161"/>
@@ -48083,12 +48083,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="203" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C25" s="204"/>
       <c r="D25" s="204"/>
       <c r="E25" s="173" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
@@ -48113,18 +48113,18 @@
     <row r="27" spans="1:10">
       <c r="A27" s="204"/>
       <c r="B27" s="160" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C27" s="161"/>
       <c r="D27" s="161"/>
       <c r="E27" s="44" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="178" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H27" s="207"/>
       <c r="I27" s="208"/>
@@ -48304,7 +48304,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -48350,35 +48350,35 @@
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>1273</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>1274</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>1277</v>
-      </c>
-      <c r="H6" s="97" t="s">
-        <v>1278</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -48390,7 +48390,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -48417,7 +48417,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -48459,7 +48459,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -48473,23 +48473,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1281</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1282</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -48498,18 +48498,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -48539,7 +48539,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -48553,22 +48553,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -48577,19 +48577,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="217" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -48598,11 +48598,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="217" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -48613,11 +48613,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="217" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -48628,11 +48628,11 @@
       <c r="B22" s="223"/>
       <c r="C22" s="225"/>
       <c r="D22" s="217" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="146"/>
@@ -48643,11 +48643,11 @@
       <c r="B23" s="223"/>
       <c r="C23" s="225"/>
       <c r="D23" s="217" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -48658,11 +48658,11 @@
       <c r="B24" s="223"/>
       <c r="C24" s="225"/>
       <c r="D24" s="217" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="146"/>
@@ -48673,11 +48673,11 @@
       <c r="B25" s="223"/>
       <c r="C25" s="225"/>
       <c r="D25" s="217" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E25" s="217"/>
       <c r="F25" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="146"/>
@@ -48688,11 +48688,11 @@
       <c r="B26" s="223"/>
       <c r="C26" s="225"/>
       <c r="D26" s="217" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="146"/>
@@ -48703,11 +48703,11 @@
       <c r="B27" s="223"/>
       <c r="C27" s="225"/>
       <c r="D27" s="217" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E27" s="217"/>
       <c r="F27" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G27" s="218"/>
       <c r="H27" s="146"/>
@@ -48718,11 +48718,11 @@
       <c r="B28" s="223"/>
       <c r="C28" s="225"/>
       <c r="D28" s="217" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E28" s="217"/>
       <c r="F28" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="146"/>
@@ -48733,11 +48733,11 @@
       <c r="B29" s="223"/>
       <c r="C29" s="225"/>
       <c r="D29" s="217" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E29" s="217"/>
       <c r="F29" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="146"/>
@@ -48748,11 +48748,11 @@
       <c r="B30" s="233"/>
       <c r="C30" s="234"/>
       <c r="D30" s="217" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E30" s="217"/>
       <c r="F30" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G30" s="218"/>
       <c r="H30" s="146"/>
@@ -48782,7 +48782,7 @@
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" ht="15.75">
       <c r="A33" s="94" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -48798,12 +48798,12 @@
         <v>1</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="E34" s="107" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -48828,18 +48828,18 @@
     <row r="36" spans="1:9" s="7" customFormat="1">
       <c r="A36" s="132"/>
       <c r="B36" s="94" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="95"/>
       <c r="E36" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="136"/>
@@ -49007,7 +49007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
@@ -49083,7 +49083,7 @@
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
@@ -49091,7 +49091,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
@@ -49103,7 +49103,7 @@
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
@@ -49111,7 +49111,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I6" s="96"/>
       <c r="J6" s="6"/>
@@ -49123,7 +49123,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -49159,15 +49159,15 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="53" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>1316</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>1317</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
@@ -49241,18 +49241,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -49286,7 +49286,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -49300,22 +49300,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>1322</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>1323</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -49324,19 +49324,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="217" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E19" s="217"/>
       <c r="F19" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -49345,11 +49345,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="217" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E20" s="217"/>
       <c r="F20" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -49360,11 +49360,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="217" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E21" s="217"/>
       <c r="F21" s="218" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -49375,11 +49375,11 @@
       <c r="B22" s="223"/>
       <c r="C22" s="225"/>
       <c r="D22" s="217" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E22" s="217"/>
       <c r="F22" s="218" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="146"/>
@@ -49390,11 +49390,11 @@
       <c r="B23" s="223"/>
       <c r="C23" s="225"/>
       <c r="D23" s="217" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E23" s="217"/>
       <c r="F23" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -49405,11 +49405,11 @@
       <c r="B24" s="223"/>
       <c r="C24" s="225"/>
       <c r="D24" s="217" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E24" s="217"/>
       <c r="F24" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="146"/>
@@ -49420,11 +49420,11 @@
       <c r="B25" s="223"/>
       <c r="C25" s="225"/>
       <c r="D25" s="217" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E25" s="217"/>
       <c r="F25" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="146"/>
@@ -49435,11 +49435,11 @@
       <c r="B26" s="223"/>
       <c r="C26" s="225"/>
       <c r="D26" s="217" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="146"/>
@@ -49450,11 +49450,11 @@
       <c r="B27" s="223"/>
       <c r="C27" s="225"/>
       <c r="D27" s="217" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E27" s="217"/>
       <c r="F27" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G27" s="218"/>
       <c r="H27" s="146"/>
@@ -49465,11 +49465,11 @@
       <c r="B28" s="223"/>
       <c r="C28" s="225"/>
       <c r="D28" s="217" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E28" s="217"/>
       <c r="F28" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="146"/>
@@ -49480,11 +49480,11 @@
       <c r="B29" s="223"/>
       <c r="C29" s="225"/>
       <c r="D29" s="217" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E29" s="217"/>
       <c r="F29" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="146"/>
@@ -49495,11 +49495,11 @@
       <c r="B30" s="233"/>
       <c r="C30" s="234"/>
       <c r="D30" s="217" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E30" s="217"/>
       <c r="F30" s="218" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G30" s="218"/>
       <c r="H30" s="146"/>
@@ -49529,7 +49529,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="94" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -49545,12 +49545,12 @@
         <v>1</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C34" s="132"/>
       <c r="D34" s="132"/>
       <c r="E34" s="107" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -49567,7 +49567,7 @@
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
       <c r="E35" s="122" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F35" s="133"/>
       <c r="G35" s="133"/>
@@ -49577,18 +49577,18 @@
     <row r="36" spans="1:9">
       <c r="A36" s="132"/>
       <c r="B36" s="94" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="95"/>
       <c r="E36" s="8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H36" s="135"/>
       <c r="I36" s="136"/>
@@ -49786,7 +49786,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -49827,40 +49827,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H6" s="226" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I6" s="227"/>
       <c r="J6" s="6"/>
@@ -49872,7 +49872,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -49899,7 +49899,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -49941,7 +49941,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -49955,23 +49955,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1281</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1282</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -49980,18 +49980,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -50025,7 +50025,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -50039,22 +50039,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -50063,19 +50063,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="235" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="236"/>
       <c r="F19" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -50084,11 +50084,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="235" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E20" s="236"/>
       <c r="F20" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -50099,11 +50099,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="235" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E21" s="236"/>
       <c r="F21" s="218" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -50114,11 +50114,11 @@
       <c r="B22" s="223"/>
       <c r="C22" s="225"/>
       <c r="D22" s="235" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E22" s="236"/>
       <c r="F22" s="218" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="146"/>
@@ -50129,11 +50129,11 @@
       <c r="B23" s="223"/>
       <c r="C23" s="225"/>
       <c r="D23" s="235" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E23" s="236"/>
       <c r="F23" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -50144,11 +50144,11 @@
       <c r="B24" s="223"/>
       <c r="C24" s="225"/>
       <c r="D24" s="235" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E24" s="236"/>
       <c r="F24" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="146"/>
@@ -50159,11 +50159,11 @@
       <c r="B25" s="223"/>
       <c r="C25" s="225"/>
       <c r="D25" s="235" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E25" s="236"/>
       <c r="F25" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="146"/>
@@ -50174,11 +50174,11 @@
       <c r="B26" s="223"/>
       <c r="C26" s="225"/>
       <c r="D26" s="235" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E26" s="236"/>
       <c r="F26" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="146"/>
@@ -50189,7 +50189,7 @@
       <c r="B27" s="223"/>
       <c r="C27" s="225"/>
       <c r="D27" s="235" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E27" s="236"/>
       <c r="F27" s="218"/>
@@ -50202,11 +50202,11 @@
       <c r="B28" s="223"/>
       <c r="C28" s="225"/>
       <c r="D28" s="235" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E28" s="236"/>
       <c r="F28" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="146"/>
@@ -50217,11 +50217,11 @@
       <c r="B29" s="223"/>
       <c r="C29" s="225"/>
       <c r="D29" s="235" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E29" s="236"/>
       <c r="F29" s="218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="146"/>
@@ -50251,7 +50251,7 @@
     </row>
     <row r="32" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A32" s="94" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
@@ -50267,12 +50267,12 @@
         <v>1</v>
       </c>
       <c r="B33" s="131" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C33" s="132"/>
       <c r="D33" s="132"/>
       <c r="E33" s="107" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F33" s="107"/>
       <c r="G33" s="107"/>
@@ -50297,18 +50297,18 @@
     <row r="35" spans="1:9" s="7" customFormat="1">
       <c r="A35" s="132"/>
       <c r="B35" s="94" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
       <c r="E35" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H35" s="135"/>
       <c r="I35" s="136"/>
@@ -50504,7 +50504,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -50545,40 +50545,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>1369</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>1370</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H6" s="226" t="s">
         <v>1373</v>
-      </c>
-      <c r="H6" s="226" t="s">
-        <v>1374</v>
       </c>
       <c r="I6" s="227"/>
       <c r="J6" s="6"/>
@@ -50590,7 +50590,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -50617,7 +50617,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -50626,20 +50626,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="53" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F9" s="100" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="52" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -50648,7 +50648,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
@@ -50656,12 +50656,12 @@
         <v>31</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="52" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -50679,7 +50679,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -50693,23 +50693,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1381</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1382</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -50718,18 +50718,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -50763,7 +50763,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -50777,22 +50777,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -50801,19 +50801,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="235" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E19" s="236"/>
       <c r="F19" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -50822,11 +50822,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="235" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E20" s="236"/>
       <c r="F20" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -50837,11 +50837,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="235" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E21" s="236"/>
       <c r="F21" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -50852,11 +50852,11 @@
       <c r="B22" s="223"/>
       <c r="C22" s="225"/>
       <c r="D22" s="235" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="236"/>
       <c r="F22" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G22" s="218"/>
       <c r="H22" s="146"/>
@@ -50867,11 +50867,11 @@
       <c r="B23" s="223"/>
       <c r="C23" s="225"/>
       <c r="D23" s="235" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E23" s="236"/>
       <c r="F23" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G23" s="218"/>
       <c r="H23" s="146"/>
@@ -50882,11 +50882,11 @@
       <c r="B24" s="223"/>
       <c r="C24" s="225"/>
       <c r="D24" s="235" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E24" s="236"/>
       <c r="F24" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G24" s="218"/>
       <c r="H24" s="146"/>
@@ -50897,11 +50897,11 @@
       <c r="B25" s="223"/>
       <c r="C25" s="225"/>
       <c r="D25" s="235" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E25" s="236"/>
       <c r="F25" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G25" s="218"/>
       <c r="H25" s="146"/>
@@ -50912,11 +50912,11 @@
       <c r="B26" s="223"/>
       <c r="C26" s="225"/>
       <c r="D26" s="235" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E26" s="236"/>
       <c r="F26" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G26" s="218"/>
       <c r="H26" s="146"/>
@@ -50927,7 +50927,7 @@
       <c r="B27" s="223"/>
       <c r="C27" s="225"/>
       <c r="D27" s="235" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E27" s="236"/>
       <c r="F27" s="218"/>
@@ -50940,11 +50940,11 @@
       <c r="B28" s="223"/>
       <c r="C28" s="225"/>
       <c r="D28" s="235" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E28" s="236"/>
       <c r="F28" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G28" s="218"/>
       <c r="H28" s="146"/>
@@ -50955,11 +50955,11 @@
       <c r="B29" s="223"/>
       <c r="C29" s="225"/>
       <c r="D29" s="235" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E29" s="236"/>
       <c r="F29" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G29" s="218"/>
       <c r="H29" s="146"/>
@@ -50989,7 +50989,7 @@
     </row>
     <row r="32" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A32" s="94" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
@@ -51005,12 +51005,12 @@
         <v>1</v>
       </c>
       <c r="B33" s="131" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C33" s="132"/>
       <c r="D33" s="132"/>
       <c r="E33" s="107" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F33" s="107"/>
       <c r="G33" s="107"/>
@@ -51035,18 +51035,18 @@
     <row r="35" spans="1:9" s="7" customFormat="1">
       <c r="A35" s="132"/>
       <c r="B35" s="94" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
       <c r="E35" s="8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H35" s="135"/>
       <c r="I35" s="136"/>
@@ -51242,7 +51242,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -51283,40 +51283,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H6" s="226" t="s">
         <v>1421</v>
-      </c>
-      <c r="H6" s="226" t="s">
-        <v>1422</v>
       </c>
       <c r="I6" s="227"/>
       <c r="J6" s="6"/>
@@ -51328,7 +51328,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -51355,7 +51355,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -51397,7 +51397,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -51411,23 +51411,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1426</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1427</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -51436,18 +51436,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -51481,7 +51481,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -51495,22 +51495,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -51519,19 +51519,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="235" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E19" s="236"/>
       <c r="F19" s="218" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -51540,11 +51540,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="235" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E20" s="236"/>
       <c r="F20" s="218" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -51555,11 +51555,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="235" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E21" s="236"/>
       <c r="F21" s="218" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -51589,7 +51589,7 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A24" s="94" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B24" s="95"/>
       <c r="C24" s="95"/>
@@ -51605,12 +51605,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
       <c r="E25" s="107" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="107"/>
@@ -51635,18 +51635,18 @@
     <row r="27" spans="1:10" s="7" customFormat="1">
       <c r="A27" s="132"/>
       <c r="B27" s="94" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="8" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="136"/>
@@ -51826,7 +51826,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="93" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -51867,40 +51867,40 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="94" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="47" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>1455</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>1456</v>
       </c>
       <c r="I5" s="96"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="94" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="96" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="47" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H6" s="226" t="s">
         <v>1459</v>
-      </c>
-      <c r="H6" s="226" t="s">
-        <v>1460</v>
       </c>
       <c r="I6" s="227"/>
       <c r="J6" s="6"/>
@@ -51912,7 +51912,7 @@
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E7" s="96"/>
       <c r="F7" s="96"/>
@@ -51939,7 +51939,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="47" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -51948,20 +51948,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="53" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>1464</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>1465</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="52" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -51970,7 +51970,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
@@ -51978,12 +51978,12 @@
         <v>31</v>
       </c>
       <c r="F10" s="100" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="52" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J10" s="6"/>
     </row>
@@ -52001,7 +52001,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="94" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="95"/>
@@ -52015,23 +52015,23 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="47" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>1381</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>1382</v>
       </c>
       <c r="C13" s="105"/>
       <c r="D13" s="106"/>
       <c r="E13" s="104" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F13" s="106"/>
       <c r="G13" s="104" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="47" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -52040,18 +52040,18 @@
         <v>1</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="107" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F14" s="109"/>
       <c r="G14" s="148"/>
       <c r="H14" s="109"/>
       <c r="I14" s="48" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -52085,7 +52085,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="94" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -52099,22 +52099,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C18" s="105"/>
       <c r="D18" s="98" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E18" s="119"/>
       <c r="F18" s="120" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G18" s="121"/>
       <c r="H18" s="122" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I18" s="123"/>
     </row>
@@ -52123,19 +52123,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="220" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C19" s="222"/>
       <c r="D19" s="235" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E19" s="236"/>
       <c r="F19" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G19" s="218"/>
       <c r="H19" s="139" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I19" s="145"/>
     </row>
@@ -52144,11 +52144,11 @@
       <c r="B20" s="223"/>
       <c r="C20" s="225"/>
       <c r="D20" s="235" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E20" s="236"/>
       <c r="F20" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G20" s="218"/>
       <c r="H20" s="146"/>
@@ -52159,11 +52159,11 @@
       <c r="B21" s="223"/>
       <c r="C21" s="225"/>
       <c r="D21" s="235" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E21" s="236"/>
       <c r="F21" s="218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="G21" s="218"/>
       <c r="H21" s="146"/>
@@ -52193,7 +52193,7 @@
     </row>
     <row r="24" spans="1:10" s="7" customFormat="1" ht="15.75">
       <c r="A24" s="94" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B24" s="95"/>
       <c r="C24" s="95"/>
@@ -52209,12 +52209,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="131" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="132"/>
       <c r="E25" s="107" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="107"/>
@@ -52239,18 +52239,18 @@
     <row r="27" spans="1:10" s="7" customFormat="1">
       <c r="A27" s="132"/>
       <c r="B27" s="94" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C27" s="95"/>
       <c r="D27" s="95"/>
       <c r="E27" s="8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H27" s="135"/>
       <c r="I27" s="136"/>
